--- a/biology/Zoologie/Calliophis_melanurus/Calliophis_melanurus.xlsx
+++ b/biology/Zoologie/Calliophis_melanurus/Calliophis_melanurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calliophis melanurus est une espèce de serpents de la famille des Elapidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calliophis melanurus est une espèce de serpents de la famille des Elapidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Inde, au Bangladesh et au Sri Lanka[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Inde, au Bangladesh et au Sri Lanka. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un serpent venimeux et ovipare[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un serpent venimeux et ovipare.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (23 janvier 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (23 janvier 2014) :
 Calliophis melanurus melanurus (Shaw, 1802)
 Calliophis melanurus sinhaleyus Deraniyagala, 1951</t>
         </is>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Deraniyagala, 1951 : Some new races of the snakes Eryx, Callophis, and Echis. Spolia Zeylanica, vol. 26, p. 147-150.
 Shaw, 1802 : General Zoology or Systematic Natural History, G. Kearsley, Thomas Davison, London, vol. 3, no 2, p. 313-615 (texte intégral).</t>
